--- a/Reference-Designs/Artillery Sidewinder/Sidewinder Reference BOM.xlsx
+++ b/Reference-Designs/Artillery Sidewinder/Sidewinder Reference BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EB9A2A-EA05-4FD1-A03C-74A288251B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475B768-D029-4643-BDEE-5A3580152514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>SpoolScale Artillery Sidewinder X1 Reference Design</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/91294A210/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B08JTZCJV1/ref=ppx_yo_dt_b_search_asin_title?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Need appx. 1 meter</t>
+  </si>
+  <si>
+    <t>4-Wire Cable</t>
   </si>
 </sst>
 </file>
@@ -476,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,13 +590,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,10 +610,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -609,10 +624,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -623,10 +638,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -637,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -651,19 +666,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -671,10 +680,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -683,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,19 +700,19 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -711,16 +720,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,16 +740,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -754,7 +766,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,15 +774,32 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -782,15 +811,15 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" location="artillery-sidewinder-x1" xr:uid="{E4DB499B-4E2F-417E-917C-C47E577A4C10}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{7C4BF10F-9416-4B80-B359-C6559BCBD187}"/>
-    <hyperlink ref="E13" r:id="rId3" xr:uid="{3867743E-40B4-4850-A43E-D8448896CA1A}"/>
-    <hyperlink ref="E14" r:id="rId4" xr:uid="{58B8C360-30C9-43F2-A220-C03AB77128E1}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{F24BC057-3584-45D9-AE39-8CFCF30AED02}"/>
-    <hyperlink ref="E18" r:id="rId6" xr:uid="{8D614339-1970-4648-9E37-54F4B8652172}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{7C4BF10F-9416-4B80-B359-C6559BCBD187}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{3867743E-40B4-4850-A43E-D8448896CA1A}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{58B8C360-30C9-43F2-A220-C03AB77128E1}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{F24BC057-3584-45D9-AE39-8CFCF30AED02}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{8D614339-1970-4648-9E37-54F4B8652172}"/>
     <hyperlink ref="E5" r:id="rId7" xr:uid="{7B4CD43F-A7DF-4E52-A79A-8E3E91FE4EA0}"/>
     <hyperlink ref="E6" r:id="rId8" xr:uid="{4F73A383-E262-41CD-9E14-EDF6149B64FC}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{A0876072-4C6A-4E6C-AC60-B9920AB8A307}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{E3042806-7032-474D-9125-C9A1D3FDF9A4}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{A0876072-4C6A-4E6C-AC60-B9920AB8A307}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{E3042806-7032-474D-9125-C9A1D3FDF9A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reference-Designs/Artillery Sidewinder/Sidewinder Reference BOM.xlsx
+++ b/Reference-Designs/Artillery Sidewinder/Sidewinder Reference BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475B768-D029-4643-BDEE-5A3580152514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF0D396-66E2-423D-B7FF-4DA5494989A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5220" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>SpoolScale Artillery Sidewinder X1 Reference Design</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>4-Wire Cable</t>
+  </si>
+  <si>
+    <t>M3x16 Countersunk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mcmaster.com/91294A134/ </t>
   </si>
 </sst>
 </file>
@@ -197,13 +203,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,24 +505,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -561,7 +567,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -578,7 +584,7 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
@@ -598,7 +604,7 @@
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F7" t="s">
@@ -688,7 +694,7 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
@@ -708,7 +714,7 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
@@ -728,7 +734,7 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
@@ -748,7 +754,7 @@
       <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -765,7 +771,7 @@
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -782,7 +788,7 @@
       <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -799,8 +805,25 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -820,6 +843,7 @@
     <hyperlink ref="E6" r:id="rId8" xr:uid="{4F73A383-E262-41CD-9E14-EDF6149B64FC}"/>
     <hyperlink ref="E16" r:id="rId9" xr:uid="{A0876072-4C6A-4E6C-AC60-B9920AB8A307}"/>
     <hyperlink ref="E18" r:id="rId10" xr:uid="{E3042806-7032-474D-9125-C9A1D3FDF9A4}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{18A90C78-CE89-473D-BB31-4C41C1D9E584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
